--- a/Storage/标定/空载电压.xlsx
+++ b/Storage/标定/空载电压.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyData\IPMC-Platform\Storage\标定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8140008_{CD102365-A241-4DC3-96E3-3C4DA0AD7E41}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A6F22C91-8627-4E17-8C15-958A31164936}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5604"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lvtemporary_367277" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>电压均值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>设定值</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -616,8 +623,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -676,6 +686,1105 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lvtemporary_367277!$AC$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>设定值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.51087226596675417"/>
+                  <c:y val="-2.7777777777777776E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                      <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>lvtemporary_367277!$AB$2:$AB$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-3.9407999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.9544000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.9724999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.98580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0000_ ">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9731000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9552999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9418000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>lvtemporary_367277!$AC$2:$AC$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-46D4-4039-85E9-21C6B87CDDF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="344889680"/>
+        <c:axId val="344883120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="344889680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  </a:rPr>
+                  <a:t>设定电压</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  </a:rPr>
+                  <a:t>/ V</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44131933508311461"/>
+              <c:y val="0.90277777777777779"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="344883120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="344883120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  </a:rPr>
+                  <a:t>测量电压</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  </a:rPr>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  </a:rPr>
+                  <a:t> V</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9444444444444445E-2"/>
+              <c:y val="0.33796296296296297"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="344889680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{550AF1E4-93F6-46DB-A168-06AE2033CE10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -974,11 +2083,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1004,12 +2113,15 @@
     <col min="26" max="26" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="AB1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>400</v>
       </c>
@@ -1067,8 +2179,11 @@
       <c r="AB2">
         <v>-3.9407999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC2">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>401</v>
       </c>
@@ -1126,8 +2241,11 @@
       <c r="AB3">
         <v>-2.9544000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>402</v>
       </c>
@@ -1185,8 +2303,11 @@
       <c r="AB4">
         <v>-1.9724999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC4">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>403</v>
       </c>
@@ -1244,8 +2365,11 @@
       <c r="AB5">
         <v>-0.98580000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>404</v>
       </c>
@@ -1303,8 +2427,11 @@
       <c r="AB6">
         <v>5.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>405</v>
       </c>
@@ -1359,11 +2486,14 @@
       <c r="Z7">
         <v>3.9416000000000002</v>
       </c>
-      <c r="AB7">
-        <v>1.9731000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB7" s="1">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>406</v>
       </c>
@@ -1419,10 +2549,13 @@
         <v>3.9420000000000002</v>
       </c>
       <c r="AB8">
-        <v>2.9552999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+        <v>1.9731000000000001</v>
+      </c>
+      <c r="AC8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>407</v>
       </c>
@@ -1478,10 +2611,13 @@
         <v>3.9416000000000002</v>
       </c>
       <c r="AB9">
-        <v>3.9418000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+        <v>2.9552999999999998</v>
+      </c>
+      <c r="AC9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>408</v>
       </c>
@@ -1536,8 +2672,14 @@
       <c r="Z10">
         <v>3.9420000000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB10">
+        <v>3.9418000000000002</v>
+      </c>
+      <c r="AC10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>409</v>
       </c>
@@ -1593,7 +2735,7 @@
         <v>3.9420000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>410</v>
       </c>
@@ -1649,7 +2791,7 @@
         <v>3.9416000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>411</v>
       </c>
@@ -1705,7 +2847,7 @@
         <v>3.9420000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>412</v>
       </c>
@@ -1761,7 +2903,7 @@
         <v>3.9416000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>413</v>
       </c>
@@ -1817,7 +2959,7 @@
         <v>3.9416000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>414</v>
       </c>
@@ -6675,5 +7817,6 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>